--- a/excel thoughts about movement.xlsx
+++ b/excel thoughts about movement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="5600" yWindow="3180" windowWidth="37440" windowHeight="19160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Robot foot placement</t>
   </si>
@@ -48,16 +48,180 @@
   </si>
   <si>
     <t>yellow is slow step and slow stride</t>
+  </si>
+  <si>
+    <t>FORWARD</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>STRIDE</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>WALK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALK </t>
+  </si>
+  <si>
+    <t>BIT 0</t>
+  </si>
+  <si>
+    <t>BIT 1</t>
+  </si>
+  <si>
+    <t>BIT 2</t>
+  </si>
+  <si>
+    <t>BIT 3</t>
+  </si>
+  <si>
+    <t>BIT 4</t>
+  </si>
+  <si>
+    <t>BIT 5</t>
+  </si>
+  <si>
+    <t>SPEED 1</t>
+  </si>
+  <si>
+    <t>SPEED 0</t>
+  </si>
+  <si>
+    <t>SPEED 2</t>
+  </si>
+  <si>
+    <t>SPEED 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRIDE </t>
+  </si>
+  <si>
+    <t>BIT 6</t>
+  </si>
+  <si>
+    <t>BIT 7</t>
+  </si>
+  <si>
+    <t>BIT 8</t>
+  </si>
+  <si>
+    <t>BIT 9</t>
+  </si>
+  <si>
+    <t>LEFT STICK</t>
+  </si>
+  <si>
+    <t>UP AND DOWN</t>
+  </si>
+  <si>
+    <t>LEFT AND RIGHT</t>
+  </si>
+  <si>
+    <t>RIGHT STICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTATE </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>RECENTER TURRET</t>
+  </si>
+  <si>
+    <t>RIGHT TRIGGER</t>
+  </si>
+  <si>
+    <t>LEFT TRIGGER</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>SLOW MOVE</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>LEFT STICK PRESS</t>
+  </si>
+  <si>
+    <t>RIGHT STICK PRESS</t>
+  </si>
+  <si>
+    <t>RECENTER LEG POSITION</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>X MIN</t>
+  </si>
+  <si>
+    <t>X MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y MIN </t>
+  </si>
+  <si>
+    <t>Y MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +280,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,8 +313,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,19 +596,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="14" width="3.33203125" style="1" customWidth="1"/>
+    <col min="6" max="13" width="3.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" style="1" customWidth="1"/>
+    <col min="15" max="24" width="4.6640625" customWidth="1"/>
+    <col min="27" max="28" width="11.6640625" customWidth="1"/>
+    <col min="29" max="29" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -459,8 +637,20 @@
       <c r="M1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1">
+        <f>(W15+Q15)/2</f>
+        <v>200</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -477,8 +667,17 @@
       <c r="N2" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F3" s="1">
         <v>10</v>
       </c>
@@ -492,8 +691,17 @@
       <c r="N3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -510,8 +718,19 @@
       <c r="N4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P4" s="1">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -528,8 +747,17 @@
       <c r="N5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -546,8 +774,17 @@
       <c r="N6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -564,8 +801,20 @@
       <c r="N7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="1">
+        <f>X8+5</f>
+        <v>205</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -582,8 +831,20 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="1">
+        <f>(P4+P12)/2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F9" s="1">
         <v>-1</v>
       </c>
@@ -597,8 +858,20 @@
       <c r="N9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="1">
+        <f>X8-5</f>
+        <v>195</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F10" s="1">
         <v>-2</v>
       </c>
@@ -612,8 +885,17 @@
       <c r="N10" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F11" s="1">
         <v>-3</v>
       </c>
@@ -627,8 +909,32 @@
       <c r="N11" s="1">
         <v>-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F12" s="1">
         <v>-5</v>
       </c>
@@ -642,8 +948,37 @@
       <c r="N12" s="1">
         <v>-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="1">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>83</v>
+      </c>
       <c r="F13" s="1">
         <v>-10</v>
       </c>
@@ -657,8 +992,20 @@
       <c r="N13" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>93.5</v>
+      </c>
       <c r="F14" s="1">
         <v>-15</v>
       </c>
@@ -672,8 +1019,36 @@
       <c r="N14" s="1">
         <v>-15</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>52</v>
+      </c>
       <c r="G15" s="1">
         <v>-3</v>
       </c>
@@ -695,8 +1070,94 @@
       <c r="M15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>175</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1">
+        <f>T1+5</f>
+        <v>205</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
+        <f>T1-5</f>
+        <v>195</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1">
+        <v>225</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Z15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="9"/>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>A15+A14+A13</f>
+        <v>228.5</v>
+      </c>
+      <c r="T16">
+        <f>(Q15-W15)/5</f>
+        <v>-10</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>225</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>225</v>
+      </c>
       <c r="G18" s="1">
         <v>-3</v>
       </c>
@@ -719,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F19" s="1">
         <v>15</v>
       </c>
@@ -733,8 +1194,14 @@
       <c r="N19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Y19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F20" s="1">
         <v>10</v>
       </c>
@@ -749,7 +1216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F21" s="1">
         <v>5</v>
       </c>
@@ -763,8 +1230,20 @@
       <c r="N21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="S21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F22" s="1">
         <v>3</v>
       </c>
@@ -778,8 +1257,27 @@
       <c r="N22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22">
+        <v>175</v>
+      </c>
+      <c r="T22">
+        <v>200</v>
+      </c>
+      <c r="U22">
+        <v>175</v>
+      </c>
+      <c r="V22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>SQRT(100^2+100^2)</f>
+        <v>141.42135623730951</v>
+      </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
@@ -793,8 +1291,24 @@
       <c r="N23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23">
+        <v>150</v>
+      </c>
+      <c r="T23">
+        <v>225</v>
+      </c>
+      <c r="U23">
+        <v>150</v>
+      </c>
+      <c r="V23">
+        <v>225</v>
+      </c>
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F24" s="1">
         <v>1</v>
       </c>
@@ -808,8 +1322,24 @@
       <c r="N24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24">
+        <v>125</v>
+      </c>
+      <c r="T24">
+        <v>250</v>
+      </c>
+      <c r="U24">
+        <v>125</v>
+      </c>
+      <c r="V24">
+        <v>250</v>
+      </c>
+      <c r="AA24" s="9"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F25" s="1">
         <v>0</v>
       </c>
@@ -823,8 +1353,23 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Y25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F26" s="1">
         <v>-1</v>
       </c>
@@ -838,8 +1383,23 @@
       <c r="N26" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Y26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F27" s="1">
         <v>-2</v>
       </c>
@@ -853,8 +1413,20 @@
       <c r="N27" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="AA27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F28" s="1">
         <v>-3</v>
       </c>
@@ -868,8 +1440,20 @@
       <c r="N28" s="1">
         <v>-3</v>
       </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="AA28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F29" s="1">
         <v>-5</v>
       </c>
@@ -884,7 +1468,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F30" s="1">
         <v>-10</v>
       </c>
@@ -899,7 +1483,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F31" s="1">
         <v>-15</v>
       </c>
@@ -913,8 +1497,17 @@
       <c r="N31" s="1">
         <v>-15</v>
       </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="Y31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="G32" s="1">
         <v>-3</v>
       </c>
@@ -935,6 +1528,70 @@
       </c>
       <c r="M32" s="1">
         <v>3</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AA33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="Y36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="Y39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="Y40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="Y42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="Y44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="Y45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
